--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,203 +439,62 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Oven's Slice</t>
+          <t>Holistic Dental Association | Find a Holistic Dentist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+1 646-449-0199</t>
+          <t>(805) 232-4310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://order.toasttab.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>https://holisticdental.org/find-a-holistic-dentist/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>loricardellino@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Google Search</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sempre Oggi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+1 212-377-7150</t>
-        </is>
-      </c>
+          <t>Dr. Shreya T. | Dentist (@desidentist95) • Instagram photos ...</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://semprenyc.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Joe's Pizza Broadway</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+1 646-559-4878</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://fooddiscoveryapp.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nuovo York Pizza</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+1 646-476-2428</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://nuovoyorkpizza.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prince Street Pizza</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+1 212-966-4100</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://princestreetpizza.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27 Prince St, New York, NY 10012</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NY Pizza Suprema</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>+1 212-594-8939</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://nypizzasuprema.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Joe's Pizza</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>+1 212-366-1182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://slicelife.com</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7 Carmine St, New York, NY 10014</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Song' E Napule</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>+1 212-533-1242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://opentable.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>132 W Houston St, New York, NY 10012</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bleecker Street Pizza</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>+1 212-924-4466</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://slicelife.com</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>John's of Bleecker Street</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>+1 212-243-1680</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://orderjohnsofbleecker.com</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>278 Bleecker St, New York, NY 10014</t>
+          <t>https://www.instagram.com/desidentist95/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DentistShreya1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Google Search</t>
         </is>
       </c>
     </row>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,319 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Holistic Dental Association | Find a Holistic Dentist</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(805) 232-4310</t>
-        </is>
-      </c>
+          <t>Alexandra Scott | REALTOR® (@alexandra ... - Instagram</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://holisticdental.org/find-a-holistic-dentist/</t>
+          <t>https://www.instagram.com/alexandra_realestate/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>loricardellino@gmail.com</t>
+          <t>alex.g.scott19@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Google Search</t>
+          <t>Yahoo Search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dr. Shreya T. | Dentist (@desidentist95) • Instagram photos ...</t>
+          <t>Brittney | Real Estate (@realtorbclemons) • Instagram photos ...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/desidentist95/</t>
+          <t>https://www.instagram.com/realtorbclemons/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DentistShreya1@gmail.com</t>
+          <t>RealtorBClemons@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Google Search</t>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ericlong480@gmail.com (@realreal_ericlong) - Instagram</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/realreal_ericlong/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ericlong480@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Melissa Gomez | NYC &amp; LI Realtor (@myrealtorlife) - Instagram</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(646) 533-4102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/myrealtorlife/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>melissagomezera@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Maya Patel • Texas REALTOR® (@patelwillsell) • Instagram ...</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/patelwillsell/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>patelwillsell@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sylwia Machnik | Chicago &amp; Suburbs Realtor®️ (@sylwiam ...</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sylwiam_realtor/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sylwiamrealtor@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brisa Ramos® (@brisaramos_realtor) • Instagram photos and videos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(602) 358-9477</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/brisaramos_realtor/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Brisaramos.realtor@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(484) 764-4912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reel/DU0S8iskTv1/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>jose.ortiz@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(484)951-1351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DU71EYiEVrt/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kmedinasellsre@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(484)951-1351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DU71EYiEVrt/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jennyferalfaro.realestate@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DU9wSQWj638/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IFRA.recruit@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Margo Davidov (@mrsrealestatecalgary) • Instagram photos and ...</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mrsrealestatecalgary/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>margoxdav@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kelli Higgins on Instagram: " Stop using Gmail! Why you NEED ...</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reel/DFHFFnpPmaR/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yournameorsomethingrandom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
         </is>
       </c>
     </row>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alexandra Scott | REALTOR® (@alexandra ... - Instagram</t>
+          <t>Gloria Properties Limited | Dhaka - Facebook</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/alexandra_realestate/</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>alex.g.scott19@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/GloriaPropertiesLtd/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -474,20 +470,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brittney | Real Estate (@realtorbclemons) • Instagram photos ...</t>
+          <t>Actual Properties | Dhaka - Facebook</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/realtorbclemons/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>RealtorBClemons@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/actualproperties.ppl/directory_basic_info/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -497,20 +489,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ericlong480@gmail.com (@realreal_ericlong) - Instagram</t>
+          <t>Ramim Real Estate Limited | Dhaka - Facebook</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/realreal_ericlong/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ericlong480@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/ramimrealestateltd/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -520,24 +508,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Melissa Gomez | NYC &amp; LI Realtor (@myrealtorlife) - Instagram</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(646) 533-4102</t>
-        </is>
-      </c>
+          <t>PropertyNext | Dhaka - Facebook</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/myrealtorlife/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>melissagomezera@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/PropertyNextDevelopments/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -547,20 +527,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Maya Patel • Texas REALTOR® (@patelwillsell) • Instagram ...</t>
+          <t>Landex Properties | Dhaka - Facebook</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/patelwillsell/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>patelwillsell@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/landex100/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -570,20 +546,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sylwia Machnik | Chicago &amp; Suburbs Realtor®️ (@sylwiam ...</t>
+          <t>Khan Properties | Dhaka - Facebook</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/sylwiam_realtor/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sylwiamrealtor@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/ktechnicaltradingdingbd/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -593,24 +565,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brisa Ramos® (@brisaramos_realtor) • Instagram photos and videos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(602) 358-9477</t>
-        </is>
-      </c>
+          <t>Besthome Properties Ltd. | Dhaka - Facebook</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/brisaramos_realtor/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Brisaramos.realtor@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/besthomepropertiesltd/directory_contact_info/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -620,24 +584,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(484) 764-4912</t>
-        </is>
-      </c>
+          <t>Samrat Real Estate</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/reel/DU0S8iskTv1/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>jose.ortiz@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/p/Samrat-Real-Estate-61566635198822/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -647,24 +603,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(484)951-1351</t>
-        </is>
-      </c>
+          <t>Shell Real Estate BD LTD.'s post</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU71EYiEVrt/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>kmedinasellsre@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/61581291070949/posts/-strength-built-with-steel-trust-built-with-quality-at-shell-real-estate-bd-ltd-/122119735527043035/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -674,24 +622,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(484)951-1351</t>
-        </is>
-      </c>
+          <t>Shamsul Alamin Real Estate Ltd - SARE | Dhaka</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU71EYiEVrt/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Jennyferalfaro.realestate@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/sarebd/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -701,20 +641,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Sikder Real Estate Ventures | Dhaka</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU9wSQWj638/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>IFRA.recruit@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/sikderrealestateventures/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -724,20 +660,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Margo Davidov (@mrsrealestatecalgary) • Instagram photos and ...</t>
+          <t>Green Hut Real Estate Company | Dhaka</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mrsrealestatecalgary/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>margoxdav@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/greenhutrealstate/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
@@ -747,21 +679,644 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kelli Higgins on Instagram: " Stop using Gmail! Why you NEED ...</t>
+          <t>ANZ PROPERTIES LIMITED | Dhaka</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/reel/DFHFFnpPmaR/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>yournameorsomethingrandom@gmail.com</t>
-        </is>
-      </c>
+          <t>https://www.facebook.com/anzproperties/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CKGE Real Estate Limited | Dhaka</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ckgeltd/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apon Properties Ltd | Dhaka</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/AponPropertiesLtd/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GreenHope Properties Limited | Dhaka</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/greenhopepropertieslimited/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Amin Mohammad Group | Dhaka</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/AminMohammadGroup/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Imperial Estate &amp; Holdings Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/imperialestateltd/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Siddque Construction &amp; Land Solution | Dhaka</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/siddqueconstructionlandsolution/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Workpress Property Preservation | Dhaka</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/WORKPRESS.PP/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bangladesh Development Company PLC | Dhaka</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BangladeshDevelopmentCompany/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>flatr | Dhaka</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/flatrproperties/about/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pine City Purbachal | Dhaka</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pinecityofficial/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Landscape Builders Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/landscapebuildersltd/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Premier Housing &amp; Developments Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/premierhousingltd/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>𝐌𝐢𝐥𝐞𝐬𝐭𝐨𝐧𝐞 𝐇𝐨𝐦𝐞𝐬 𝐋𝐭𝐝. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/milestonehomesbd/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mohammadia Construction &amp; Properties Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MCPLBD/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELH Developments Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ELHDevelopmentsLtd/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Safe Property | Dhaka</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/safepropertybd/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dhaka Western Valley | আপনার স্বপ্নের ঠিকানা শহরের কোলাহল ...</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1623486792338956/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Marvelous Group :: মার্ভেলাস গ্রুপ | Dhaka</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MarvelousGroupBD/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Allure Builders Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/allurebd/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sharaqa Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharaqapvtltd/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intime Developments Limited</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/intimedevelopmentsltd/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>STI Builders Limited | Dhaka</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/stibuilders/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>River Park Model Town | Dhaka</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/gloriouspropertiesltd/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Family Group | Dhaka</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/familygroupinfo/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SPAR Developments &amp; Holdings Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/spardevelopments/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intime Developments Limited</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/intimedevelopmentsltdofficial/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Horizon Apartments Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/horizonapartmentsltd/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SPAR Developments &amp; Holdings Ltd. | Dhaka</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/spardevelopments/directory_personal_details/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AMT Properties Limited</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/amtpropertieslimited/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Login and Password | Facebook Help Center</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://upload.facebook.com/help/login/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://apps.facebook.com/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Meta for Business (formerly Facebook for Business)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://business.facebook.com/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Yahoo Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Meta for Business (formerly Facebook for Business)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://business.facebook.com/latest/home/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Yahoo Search</t>
         </is>
